--- a/Avantis Mapping/SPARQL_class.xlsx
+++ b/Avantis Mapping/SPARQL_class.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medney\Documents\GitHub\TWONTO\Avantis Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2759EE92-3785-4E66-8433-C6AAC76EC1B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7EFEB5-2846-4577-8973-2D6460A01CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
   </bookViews>
@@ -36,318 +36,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="206" uniqueCount="206">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
   <si>
     <t>TWONTO</t>
   </si>
   <si>
     <t>Avantis_Class</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#channel_gate</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_air_or_pneumatic_control_panel</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#UV_disinfection_assembly</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#clarifier</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#controlled_door_access</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#600V_insulated_case_electrical_cabinet</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#heater</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#protection_relay</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#ladder</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#passenger_vehicles</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#5kV_electrical_cabinet</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#rupture_disc</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#VFD</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#quencher</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#dryer</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#air_damper</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#outfall_or_discharge_point</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#centrifuge</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#battery</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#strainer</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#boiler</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#backflow_preventer</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#well</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#man_lift</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#cyclone_classifier</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#gearbox</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#air_duct_segment</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#transformer</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#ventilation_system</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#screen</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#burner_component_of_asset</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#computer</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#water_trailer</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#server_appliance</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#dehumidifier</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#blower</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#ac_condenser_unit</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#crane</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#conveyor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#first_aid_kit</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#compressor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#grinder_or_comminutor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#fixed_gas_detector</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pipette</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#PLC</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#lighting_unit</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#auto_sampler</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#classifier</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#breaker</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#network_switch</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#motor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#air_scrubber</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#elevator</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#storage_tank</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#power_washer</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#collector_mechanism</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#RTU</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#boat</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#granular_material</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#mixer_or_agitator</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#engine</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#weight_scale</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pneumatic_system</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#actuator</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#building</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#manhole</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#data_logger</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#equipment_or_access_chamber</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#humidier</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#ejector</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#vortex_classifier</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#compactor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#air_handler_unit</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#alarm_device</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#process_control_panel</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#air_exchange_unit</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#cable_segment</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_transmitter</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#flame_arrestor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pipe_segment</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_element</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#heat_exchanger</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#venturi</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#UPS</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#pump_-_without_drive</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#generator-set</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#vacuum_cleaner</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#motor_starter</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#chemical_or_concentration_analyzer</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#instrument_gauge_or_display</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#still_or_video_mobile_camera</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#controller</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#network_panel</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#valve</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#SCADA_computer_terminal</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#incinerator</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#capacitor</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#chiller</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#hydraulic_system</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#filtration_tank</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#load_break_disconnect_switch</t>
-  </si>
-  <si>
-    <t>http://www.toronto.ca/TWONTO#cooling_tower</t>
   </si>
   <si>
     <t>Gate</t>
@@ -543,9 +237,6 @@
     <t>Weigh Scale</t>
   </si>
   <si>
-    <t>Pneumatic System</t>
-  </si>
-  <si>
     <t>Actuator</t>
   </si>
   <si>
@@ -663,6 +354,309 @@
   </si>
   <si>
     <t>Cooling Tower</t>
+  </si>
+  <si>
+    <t>channel_gate</t>
+  </si>
+  <si>
+    <t>instrument_air_or_pneumatic_control_panel</t>
+  </si>
+  <si>
+    <t>UV_disinfection_assembly</t>
+  </si>
+  <si>
+    <t>clarifier</t>
+  </si>
+  <si>
+    <t>controlled_door_access</t>
+  </si>
+  <si>
+    <t>600V_insulated_case_electrical_cabinet</t>
+  </si>
+  <si>
+    <t>protection_relay</t>
+  </si>
+  <si>
+    <t>heater</t>
+  </si>
+  <si>
+    <t>ladder</t>
+  </si>
+  <si>
+    <t>passenger_vehicles</t>
+  </si>
+  <si>
+    <t>5kV_electrical_cabinet</t>
+  </si>
+  <si>
+    <t>rupture_disc</t>
+  </si>
+  <si>
+    <t>VFD</t>
+  </si>
+  <si>
+    <t>quencher</t>
+  </si>
+  <si>
+    <t>dryer</t>
+  </si>
+  <si>
+    <t>air_damper</t>
+  </si>
+  <si>
+    <t>outfall_or_discharge_point</t>
+  </si>
+  <si>
+    <t>centrifuge</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>strainer</t>
+  </si>
+  <si>
+    <t>boiler</t>
+  </si>
+  <si>
+    <t>backflow_preventer</t>
+  </si>
+  <si>
+    <t>well</t>
+  </si>
+  <si>
+    <t>man_lift</t>
+  </si>
+  <si>
+    <t>cyclone_classifier</t>
+  </si>
+  <si>
+    <t>gearbox</t>
+  </si>
+  <si>
+    <t>air_duct_segment</t>
+  </si>
+  <si>
+    <t>transformer</t>
+  </si>
+  <si>
+    <t>ventilation_system</t>
+  </si>
+  <si>
+    <t>screen</t>
+  </si>
+  <si>
+    <t>burner_component_of_asset</t>
+  </si>
+  <si>
+    <t>computer</t>
+  </si>
+  <si>
+    <t>water_trailer</t>
+  </si>
+  <si>
+    <t>server_appliance</t>
+  </si>
+  <si>
+    <t>dehumidifier</t>
+  </si>
+  <si>
+    <t>blower</t>
+  </si>
+  <si>
+    <t>ac_condenser_unit</t>
+  </si>
+  <si>
+    <t>crane</t>
+  </si>
+  <si>
+    <t>conveyor</t>
+  </si>
+  <si>
+    <t>first_aid_kit</t>
+  </si>
+  <si>
+    <t>compressor</t>
+  </si>
+  <si>
+    <t>grinder_or_comminutor</t>
+  </si>
+  <si>
+    <t>fixed_gas_detector</t>
+  </si>
+  <si>
+    <t>pipette</t>
+  </si>
+  <si>
+    <t>PLC</t>
+  </si>
+  <si>
+    <t>lighting_unit</t>
+  </si>
+  <si>
+    <t>auto_sampler</t>
+  </si>
+  <si>
+    <t>classifier</t>
+  </si>
+  <si>
+    <t>breaker</t>
+  </si>
+  <si>
+    <t>network_switch</t>
+  </si>
+  <si>
+    <t>motor</t>
+  </si>
+  <si>
+    <t>air_scrubber</t>
+  </si>
+  <si>
+    <t>elevator</t>
+  </si>
+  <si>
+    <t>storage_tank</t>
+  </si>
+  <si>
+    <t>power_washer</t>
+  </si>
+  <si>
+    <t>collector_mechanism</t>
+  </si>
+  <si>
+    <t>RTU</t>
+  </si>
+  <si>
+    <t>boat</t>
+  </si>
+  <si>
+    <t>granular_material</t>
+  </si>
+  <si>
+    <t>mixer_or_agitator</t>
+  </si>
+  <si>
+    <t>engine</t>
+  </si>
+  <si>
+    <t>weight_scale</t>
+  </si>
+  <si>
+    <t>actuator</t>
+  </si>
+  <si>
+    <t>building</t>
+  </si>
+  <si>
+    <t>manhole</t>
+  </si>
+  <si>
+    <t>data_logger</t>
+  </si>
+  <si>
+    <t>equipment_or_access_chamber</t>
+  </si>
+  <si>
+    <t>humidier</t>
+  </si>
+  <si>
+    <t>ejector</t>
+  </si>
+  <si>
+    <t>vortex_classifier</t>
+  </si>
+  <si>
+    <t>compactor</t>
+  </si>
+  <si>
+    <t>air_handler_unit</t>
+  </si>
+  <si>
+    <t>alarm_device</t>
+  </si>
+  <si>
+    <t>process_control_panel</t>
+  </si>
+  <si>
+    <t>air_exchange_unit</t>
+  </si>
+  <si>
+    <t>cable_segment</t>
+  </si>
+  <si>
+    <t>instrument_transmitter</t>
+  </si>
+  <si>
+    <t>flame_arrestor</t>
+  </si>
+  <si>
+    <t>pipe_segment</t>
+  </si>
+  <si>
+    <t>instrument_element</t>
+  </si>
+  <si>
+    <t>heat_exchanger</t>
+  </si>
+  <si>
+    <t>venturi</t>
+  </si>
+  <si>
+    <t>UPS</t>
+  </si>
+  <si>
+    <t>pump_-_without_drive</t>
+  </si>
+  <si>
+    <t>generator-set</t>
+  </si>
+  <si>
+    <t>vacuum_cleaner</t>
+  </si>
+  <si>
+    <t>motor_starter</t>
+  </si>
+  <si>
+    <t>chemical_or_concentration_analyzer</t>
+  </si>
+  <si>
+    <t>instrument_gauge_or_display</t>
+  </si>
+  <si>
+    <t>still_or_video_mobile_camera</t>
+  </si>
+  <si>
+    <t>controller</t>
+  </si>
+  <si>
+    <t>network_panel</t>
+  </si>
+  <si>
+    <t>valve</t>
+  </si>
+  <si>
+    <t>SCADA_computer_terminal</t>
+  </si>
+  <si>
+    <t>incinerator</t>
+  </si>
+  <si>
+    <t>capacitor</t>
+  </si>
+  <si>
+    <t>chiller</t>
+  </si>
+  <si>
+    <t>hydraulic_system</t>
+  </si>
+  <si>
+    <t>filtration_tank</t>
+  </si>
+  <si>
+    <t>load_break_disconnect_switch</t>
+  </si>
+  <si>
+    <t>cooling_tower</t>
   </si>
 </sst>
 </file>
@@ -761,8 +755,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F59859A-FBE4-49A6-B6BA-B68B6E359698}" name="Table1" displayName="Table1" ref="A2:B104" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:B104" xr:uid="{2F59859A-FBE4-49A6-B6BA-B68B6E359698}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F59859A-FBE4-49A6-B6BA-B68B6E359698}" name="Table1" displayName="Table1" ref="A2:B103" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:B103" xr:uid="{2F59859A-FBE4-49A6-B6BA-B68B6E359698}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{501FC86E-2DD7-42BC-9958-D448426BC6D0}" name="TWONTO"/>
     <tableColumn id="2" xr3:uid="{D1C1254F-83F0-416B-8CC1-E040F314ACEE}" name="Avantis_Class"/>
@@ -1068,10 +1062,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799550E-49B1-4512-9CC1-86876BA1337E}">
-  <dimension ref="A2:B104"/>
+  <dimension ref="A2:B103"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2:B104"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1090,818 +1084,810 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
+        <v>103</v>
+      </c>
+      <c r="B3" t="s">
         <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>104</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
+        <v>104</v>
+      </c>
+      <c r="B4" t="s">
         <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
+        <v>105</v>
+      </c>
+      <c r="B5" t="s">
         <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>106</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
+        <v>106</v>
+      </c>
+      <c r="B6" t="s">
         <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>107</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
+        <v>107</v>
+      </c>
+      <c r="B7" t="s">
         <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>108</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
+        <v>108</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>7</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>109</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>109</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>9</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>8</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
+        <v>111</v>
+      </c>
+      <c r="B11" t="s">
         <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>112</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
+        <v>112</v>
+      </c>
+      <c r="B12" t="s">
         <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
+        <v>113</v>
+      </c>
+      <c r="B13" t="s">
         <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>114</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
+        <v>114</v>
+      </c>
+      <c r="B14" t="s">
         <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>115</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B15" t="s">
         <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>116</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
+        <v>116</v>
+      </c>
+      <c r="B16" t="s">
         <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
+        <v>117</v>
+      </c>
+      <c r="B17" t="s">
         <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>118</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
+        <v>118</v>
+      </c>
+      <c r="B18" t="s">
         <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
+        <v>119</v>
+      </c>
+      <c r="B19" t="s">
         <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>120</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B20" t="s">
         <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
+        <v>121</v>
+      </c>
+      <c r="B21" t="s">
         <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
+        <v>122</v>
+      </c>
+      <c r="B22" t="s">
         <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>123</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
         <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
+        <v>124</v>
+      </c>
+      <c r="B24" t="s">
         <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
+        <v>125</v>
+      </c>
+      <c r="B25" t="s">
         <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>126</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
+        <v>126</v>
+      </c>
+      <c r="B26" t="s">
         <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>127</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
+        <v>127</v>
+      </c>
+      <c r="B27" t="s">
         <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>128</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
+        <v>128</v>
+      </c>
+      <c r="B28" t="s">
         <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>129</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B29" s="2" t="s">
         <v>28</v>
-      </c>
-      <c r="B29" s="2" t="s">
-        <v>130</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" t="s">
         <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
+        <v>131</v>
+      </c>
+      <c r="B31" t="s">
         <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
+        <v>132</v>
+      </c>
+      <c r="B32" t="s">
         <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>133</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
+        <v>133</v>
+      </c>
+      <c r="B33" t="s">
         <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>134</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
+        <v>134</v>
+      </c>
+      <c r="B34" t="s">
         <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>135</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
+        <v>135</v>
+      </c>
+      <c r="B35" t="s">
         <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
+        <v>136</v>
+      </c>
+      <c r="B36" t="s">
         <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>137</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
+        <v>137</v>
+      </c>
+      <c r="B37" t="s">
         <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>138</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
+        <v>138</v>
+      </c>
+      <c r="B38" s="2" t="s">
         <v>37</v>
-      </c>
-      <c r="B38" s="2" t="s">
-        <v>139</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
+        <v>139</v>
+      </c>
+      <c r="B39" t="s">
         <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>140</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
+        <v>140</v>
+      </c>
+      <c r="B40" t="s">
         <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
+        <v>141</v>
+      </c>
+      <c r="B41" t="s">
         <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>142</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
+        <v>142</v>
+      </c>
+      <c r="B42" t="s">
         <v>41</v>
-      </c>
-      <c r="B42" t="s">
-        <v>143</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
+        <v>143</v>
+      </c>
+      <c r="B43" t="s">
         <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>144</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
+        <v>144</v>
+      </c>
+      <c r="B44" t="s">
         <v>43</v>
-      </c>
-      <c r="B44" t="s">
-        <v>145</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
+        <v>145</v>
+      </c>
+      <c r="B45" t="s">
         <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>146</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
+        <v>146</v>
+      </c>
+      <c r="B46" t="s">
         <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>147</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
+        <v>147</v>
+      </c>
+      <c r="B47" t="s">
         <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>148</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
+        <v>148</v>
+      </c>
+      <c r="B48" t="s">
         <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
         <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>150</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
+        <v>150</v>
+      </c>
+      <c r="B50" t="s">
         <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>151</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
         <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>152</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
+        <v>152</v>
+      </c>
+      <c r="B52" t="s">
         <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>153</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
+        <v>153</v>
+      </c>
+      <c r="B53" t="s">
         <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
+        <v>154</v>
+      </c>
+      <c r="B54" t="s">
         <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>155</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
+        <v>155</v>
+      </c>
+      <c r="B55" t="s">
         <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>156</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
+        <v>156</v>
+      </c>
+      <c r="B56" t="s">
         <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
+        <v>157</v>
+      </c>
+      <c r="B57" t="s">
         <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>158</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
+        <v>158</v>
+      </c>
+      <c r="B58" t="s">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
+    </row>
+    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A59" t="s">
         <v>159</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" ht="87" x14ac:dyDescent="0.35">
-      <c r="A59" t="s">
+      <c r="B59" s="2" t="s">
         <v>58</v>
-      </c>
-      <c r="B59" s="2" t="s">
-        <v>160</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
+        <v>160</v>
+      </c>
+      <c r="B60" t="s">
         <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>161</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
+        <v>161</v>
+      </c>
+      <c r="B61" t="s">
         <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
+        <v>162</v>
+      </c>
+      <c r="B62" s="2" t="s">
         <v>61</v>
-      </c>
-      <c r="B62" s="2" t="s">
-        <v>163</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
+        <v>163</v>
+      </c>
+      <c r="B63" t="s">
         <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
+        <v>164</v>
+      </c>
+      <c r="B64" t="s">
         <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>165</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
+        <v>165</v>
+      </c>
+      <c r="B65" t="s">
         <v>64</v>
       </c>
-      <c r="B65" t="s">
+    </row>
+    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A66" t="s">
         <v>166</v>
       </c>
-    </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A66" t="s">
+      <c r="B66" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="B66" t="s">
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A67" t="s">
         <v>167</v>
       </c>
-    </row>
-    <row r="67" spans="1:2" ht="29" x14ac:dyDescent="0.35">
-      <c r="A67" t="s">
+      <c r="B67" s="2" t="s">
         <v>66</v>
-      </c>
-      <c r="B67" s="2" t="s">
-        <v>168</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
+        <v>168</v>
+      </c>
+      <c r="B68" t="s">
         <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>169</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
+        <v>169</v>
+      </c>
+      <c r="B69" t="s">
         <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>170</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
+        <v>170</v>
+      </c>
+      <c r="B70" t="s">
         <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>171</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
+        <v>171</v>
+      </c>
+      <c r="B71" t="s">
         <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
+        <v>172</v>
+      </c>
+      <c r="B72" t="s">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
+    </row>
+    <row r="73" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+      <c r="A73" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A73" t="s">
+      <c r="B73" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A74" t="s">
         <v>174</v>
       </c>
-    </row>
-    <row r="74" spans="1:2" ht="72.5" x14ac:dyDescent="0.35">
-      <c r="A74" t="s">
+      <c r="B74" s="2" t="s">
         <v>73</v>
-      </c>
-      <c r="B74" s="2" t="s">
-        <v>175</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
+        <v>175</v>
+      </c>
+      <c r="B75" t="s">
         <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>176</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
+        <v>176</v>
+      </c>
+      <c r="B76" t="s">
         <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
+        <v>177</v>
+      </c>
+      <c r="B77" t="s">
         <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>178</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
+        <v>178</v>
+      </c>
+      <c r="B78" t="s">
         <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>179</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
+        <v>179</v>
+      </c>
+      <c r="B79" t="s">
         <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>180</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
+        <v>180</v>
+      </c>
+      <c r="B80" t="s">
         <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>181</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
+        <v>181</v>
+      </c>
+      <c r="B81" t="s">
         <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>182</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
+        <v>182</v>
+      </c>
+      <c r="B82" t="s">
         <v>81</v>
-      </c>
-      <c r="B82" t="s">
-        <v>183</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
+        <v>183</v>
+      </c>
+      <c r="B83" t="s">
         <v>82</v>
-      </c>
-      <c r="B83" t="s">
-        <v>184</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
+        <v>184</v>
+      </c>
+      <c r="B84" t="s">
         <v>83</v>
-      </c>
-      <c r="B84" t="s">
-        <v>185</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
+        <v>185</v>
+      </c>
+      <c r="B85" t="s">
         <v>84</v>
-      </c>
-      <c r="B85" t="s">
-        <v>186</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
+        <v>186</v>
+      </c>
+      <c r="B86" t="s">
         <v>85</v>
-      </c>
-      <c r="B86" t="s">
-        <v>187</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
+        <v>187</v>
+      </c>
+      <c r="B87" t="s">
         <v>86</v>
-      </c>
-      <c r="B87" t="s">
-        <v>188</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
+        <v>188</v>
+      </c>
+      <c r="B88" t="s">
         <v>87</v>
-      </c>
-      <c r="B88" t="s">
-        <v>189</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
+        <v>189</v>
+      </c>
+      <c r="B89" t="s">
         <v>88</v>
-      </c>
-      <c r="B89" t="s">
-        <v>190</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
+        <v>190</v>
+      </c>
+      <c r="B90" t="s">
         <v>89</v>
-      </c>
-      <c r="B90" t="s">
-        <v>191</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
+        <v>191</v>
+      </c>
+      <c r="B91" t="s">
         <v>90</v>
-      </c>
-      <c r="B91" t="s">
-        <v>192</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
+        <v>192</v>
+      </c>
+      <c r="B92" t="s">
         <v>91</v>
-      </c>
-      <c r="B92" t="s">
-        <v>193</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
+        <v>193</v>
+      </c>
+      <c r="B93" t="s">
         <v>92</v>
-      </c>
-      <c r="B93" t="s">
-        <v>194</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
+        <v>194</v>
+      </c>
+      <c r="B94" t="s">
         <v>93</v>
-      </c>
-      <c r="B94" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
+        <v>195</v>
+      </c>
+      <c r="B95" t="s">
         <v>94</v>
-      </c>
-      <c r="B95" t="s">
-        <v>196</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
+        <v>196</v>
+      </c>
+      <c r="B96" t="s">
         <v>95</v>
-      </c>
-      <c r="B96" t="s">
-        <v>197</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
+        <v>197</v>
+      </c>
+      <c r="B97" t="s">
         <v>96</v>
-      </c>
-      <c r="B97" t="s">
-        <v>198</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
+        <v>198</v>
+      </c>
+      <c r="B98" t="s">
         <v>97</v>
-      </c>
-      <c r="B98" t="s">
-        <v>199</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
+        <v>199</v>
+      </c>
+      <c r="B99" t="s">
         <v>98</v>
-      </c>
-      <c r="B99" t="s">
-        <v>200</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
+        <v>200</v>
+      </c>
+      <c r="B100" t="s">
         <v>99</v>
-      </c>
-      <c r="B100" t="s">
-        <v>201</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
+        <v>201</v>
+      </c>
+      <c r="B101" t="s">
         <v>100</v>
-      </c>
-      <c r="B101" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
+        <v>202</v>
+      </c>
+      <c r="B102" t="s">
         <v>101</v>
-      </c>
-      <c r="B102" t="s">
-        <v>203</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
+        <v>203</v>
+      </c>
+      <c r="B103" t="s">
         <v>102</v>
-      </c>
-      <c r="B103" t="s">
-        <v>204</v>
-      </c>
-    </row>
-    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
-      <c r="A104" t="s">
-        <v>103</v>
-      </c>
-      <c r="B104" t="s">
-        <v>205</v>
       </c>
     </row>
   </sheetData>

--- a/Avantis Mapping/SPARQL_class.xlsx
+++ b/Avantis Mapping/SPARQL_class.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\medney\Documents\GitHub\TWONTO\Avantis Mapping\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E7EFEB5-2846-4577-8973-2D6460A01CAE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BE00889B-524F-40EC-AC6A-5997BE28BA5C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{716C0CF8-2E33-46F2-BE6F-578AC5702A19}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="204">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="236">
   <si>
     <t>TWONTO</t>
   </si>
@@ -59,12 +59,6 @@
     <t>Door</t>
   </si>
   <si>
-    <t>Motor Control Center_x000D_
-Motor Control Centre_x000D_
-Power Distribution Panel_x000D_
-Control Panel,MCC</t>
-  </si>
-  <si>
     <t>Heater</t>
   </si>
   <si>
@@ -77,12 +71,6 @@
     <t>Vehicle</t>
   </si>
   <si>
-    <t>Switchgear</t>
-  </si>
-  <si>
-    <t>Rupture Disc</t>
-  </si>
-  <si>
     <t>Variable Frequency Drive</t>
   </si>
   <si>
@@ -125,10 +113,6 @@
     <t>Gearbox</t>
   </si>
   <si>
-    <t>Duct_x000D_
-Vent</t>
-  </si>
-  <si>
     <t>Transformer</t>
   </si>
   <si>
@@ -153,10 +137,6 @@
     <t>Dehumidifier</t>
   </si>
   <si>
-    <t>Blower_x000D_
-Fan</t>
-  </si>
-  <si>
     <t>Condensing Unit</t>
   </si>
   <si>
@@ -217,20 +197,12 @@
     <t>Collector Mechanism</t>
   </si>
   <si>
-    <t>Remote Transmission Unit_x000D_
-Remote Processor Unit</t>
-  </si>
-  <si>
     <t>Boat</t>
   </si>
   <si>
     <t>Filter</t>
   </si>
   <si>
-    <t>Agitator_x000D_
-Mixer</t>
-  </si>
-  <si>
     <t>Engine</t>
   </si>
   <si>
@@ -240,10 +212,6 @@
     <t>Actuator</t>
   </si>
   <si>
-    <t>Building_x000D_
-Structure</t>
-  </si>
-  <si>
     <t>Maintenance Hole</t>
   </si>
   <si>
@@ -262,10 +230,6 @@
     <t>Vortex</t>
   </si>
   <si>
-    <t>Compactor_x000D_
-Transfer Compactor</t>
-  </si>
-  <si>
     <t>Air Handling Unit</t>
   </si>
   <si>
@@ -302,9 +266,6 @@
     <t>Uninterruptible Power Supply</t>
   </si>
   <si>
-    <t>Pump</t>
-  </si>
-  <si>
     <t>Generator</t>
   </si>
   <si>
@@ -332,9 +293,6 @@
     <t>Valve</t>
   </si>
   <si>
-    <t>Operator Interface Terminal</t>
-  </si>
-  <si>
     <t>Incinerator</t>
   </si>
   <si>
@@ -356,42 +314,15 @@
     <t>Cooling Tower</t>
   </si>
   <si>
-    <t>channel_gate</t>
-  </si>
-  <si>
-    <t>instrument_air_or_pneumatic_control_panel</t>
-  </si>
-  <si>
-    <t>UV_disinfection_assembly</t>
-  </si>
-  <si>
     <t>clarifier</t>
   </si>
   <si>
-    <t>controlled_door_access</t>
-  </si>
-  <si>
-    <t>600V_insulated_case_electrical_cabinet</t>
-  </si>
-  <si>
-    <t>protection_relay</t>
-  </si>
-  <si>
     <t>heater</t>
   </si>
   <si>
     <t>ladder</t>
   </si>
   <si>
-    <t>passenger_vehicles</t>
-  </si>
-  <si>
-    <t>5kV_electrical_cabinet</t>
-  </si>
-  <si>
-    <t>rupture_disc</t>
-  </si>
-  <si>
     <t>VFD</t>
   </si>
   <si>
@@ -401,12 +332,6 @@
     <t>dryer</t>
   </si>
   <si>
-    <t>air_damper</t>
-  </si>
-  <si>
-    <t>outfall_or_discharge_point</t>
-  </si>
-  <si>
     <t>centrifuge</t>
   </si>
   <si>
@@ -419,129 +344,60 @@
     <t>boiler</t>
   </si>
   <si>
-    <t>backflow_preventer</t>
-  </si>
-  <si>
     <t>well</t>
   </si>
   <si>
-    <t>man_lift</t>
-  </si>
-  <si>
-    <t>cyclone_classifier</t>
-  </si>
-  <si>
     <t>gearbox</t>
   </si>
   <si>
-    <t>air_duct_segment</t>
-  </si>
-  <si>
     <t>transformer</t>
   </si>
   <si>
-    <t>ventilation_system</t>
-  </si>
-  <si>
     <t>screen</t>
   </si>
   <si>
-    <t>burner_component_of_asset</t>
-  </si>
-  <si>
     <t>computer</t>
   </si>
   <si>
-    <t>water_trailer</t>
-  </si>
-  <si>
-    <t>server_appliance</t>
-  </si>
-  <si>
     <t>dehumidifier</t>
   </si>
   <si>
     <t>blower</t>
   </si>
   <si>
-    <t>ac_condenser_unit</t>
-  </si>
-  <si>
     <t>crane</t>
   </si>
   <si>
     <t>conveyor</t>
   </si>
   <si>
-    <t>first_aid_kit</t>
-  </si>
-  <si>
     <t>compressor</t>
   </si>
   <si>
-    <t>grinder_or_comminutor</t>
-  </si>
-  <si>
-    <t>fixed_gas_detector</t>
-  </si>
-  <si>
     <t>pipette</t>
   </si>
   <si>
     <t>PLC</t>
   </si>
   <si>
-    <t>lighting_unit</t>
-  </si>
-  <si>
-    <t>auto_sampler</t>
-  </si>
-  <si>
     <t>classifier</t>
   </si>
   <si>
     <t>breaker</t>
   </si>
   <si>
-    <t>network_switch</t>
-  </si>
-  <si>
     <t>motor</t>
   </si>
   <si>
-    <t>air_scrubber</t>
-  </si>
-  <si>
     <t>elevator</t>
   </si>
   <si>
-    <t>storage_tank</t>
-  </si>
-  <si>
-    <t>power_washer</t>
-  </si>
-  <si>
-    <t>collector_mechanism</t>
-  </si>
-  <si>
-    <t>RTU</t>
-  </si>
-  <si>
     <t>boat</t>
   </si>
   <si>
-    <t>granular_material</t>
-  </si>
-  <si>
-    <t>mixer_or_agitator</t>
-  </si>
-  <si>
     <t>engine</t>
   </si>
   <si>
-    <t>weight_scale</t>
-  </si>
-  <si>
     <t>actuator</t>
   </si>
   <si>
@@ -551,93 +407,27 @@
     <t>manhole</t>
   </si>
   <si>
-    <t>data_logger</t>
-  </si>
-  <si>
-    <t>equipment_or_access_chamber</t>
-  </si>
-  <si>
-    <t>humidier</t>
-  </si>
-  <si>
     <t>ejector</t>
   </si>
   <si>
-    <t>vortex_classifier</t>
-  </si>
-  <si>
     <t>compactor</t>
   </si>
   <si>
-    <t>air_handler_unit</t>
-  </si>
-  <si>
-    <t>alarm_device</t>
-  </si>
-  <si>
-    <t>process_control_panel</t>
-  </si>
-  <si>
-    <t>air_exchange_unit</t>
-  </si>
-  <si>
-    <t>cable_segment</t>
-  </si>
-  <si>
-    <t>instrument_transmitter</t>
-  </si>
-  <si>
-    <t>flame_arrestor</t>
-  </si>
-  <si>
-    <t>pipe_segment</t>
-  </si>
-  <si>
-    <t>instrument_element</t>
-  </si>
-  <si>
-    <t>heat_exchanger</t>
-  </si>
-  <si>
     <t>venturi</t>
   </si>
   <si>
     <t>UPS</t>
   </si>
   <si>
-    <t>pump_-_without_drive</t>
-  </si>
-  <si>
     <t>generator-set</t>
   </si>
   <si>
-    <t>vacuum_cleaner</t>
-  </si>
-  <si>
-    <t>motor_starter</t>
-  </si>
-  <si>
-    <t>chemical_or_concentration_analyzer</t>
-  </si>
-  <si>
-    <t>instrument_gauge_or_display</t>
-  </si>
-  <si>
-    <t>still_or_video_mobile_camera</t>
-  </si>
-  <si>
     <t>controller</t>
   </si>
   <si>
-    <t>network_panel</t>
-  </si>
-  <si>
     <t>valve</t>
   </si>
   <si>
-    <t>SCADA_computer_terminal</t>
-  </si>
-  <si>
     <t>incinerator</t>
   </si>
   <si>
@@ -647,16 +437,322 @@
     <t>chiller</t>
   </si>
   <si>
-    <t>hydraulic_system</t>
-  </si>
-  <si>
-    <t>filtration_tank</t>
-  </si>
-  <si>
-    <t>load_break_disconnect_switch</t>
-  </si>
-  <si>
-    <t>cooling_tower</t>
+    <t>outfall or discharge point</t>
+  </si>
+  <si>
+    <t>control loop</t>
+  </si>
+  <si>
+    <t>Control Loop</t>
+  </si>
+  <si>
+    <t>pipe segment</t>
+  </si>
+  <si>
+    <t>instrument transmitter</t>
+  </si>
+  <si>
+    <t>cable segment</t>
+  </si>
+  <si>
+    <t>drive mechanism</t>
+  </si>
+  <si>
+    <t>Drive mechanism</t>
+  </si>
+  <si>
+    <t>Blower</t>
+  </si>
+  <si>
+    <t>security system</t>
+  </si>
+  <si>
+    <t>Security System</t>
+  </si>
+  <si>
+    <t>water trailer</t>
+  </si>
+  <si>
+    <t>mixer or agitator</t>
+  </si>
+  <si>
+    <t>Mixer</t>
+  </si>
+  <si>
+    <t>flame arrestor</t>
+  </si>
+  <si>
+    <t>instrument sensor element</t>
+  </si>
+  <si>
+    <t>Compactor</t>
+  </si>
+  <si>
+    <t>power washer</t>
+  </si>
+  <si>
+    <t>chemical feeder</t>
+  </si>
+  <si>
+    <t>Chemical Feeder</t>
+  </si>
+  <si>
+    <t>Agitator</t>
+  </si>
+  <si>
+    <t>first aid kit</t>
+  </si>
+  <si>
+    <t>filtration tank</t>
+  </si>
+  <si>
+    <t>storage tank</t>
+  </si>
+  <si>
+    <t>channel gate</t>
+  </si>
+  <si>
+    <t>fire equipment</t>
+  </si>
+  <si>
+    <t>Fire Equipment</t>
+  </si>
+  <si>
+    <t>still or video mobile camera</t>
+  </si>
+  <si>
+    <t>communication equipment</t>
+  </si>
+  <si>
+    <t>Communications Equipment</t>
+  </si>
+  <si>
+    <t>collector mechanism</t>
+  </si>
+  <si>
+    <t>auto sampler</t>
+  </si>
+  <si>
+    <t>cooling tower</t>
+  </si>
+  <si>
+    <t>cyclone classifier</t>
+  </si>
+  <si>
+    <t>granular material</t>
+  </si>
+  <si>
+    <t>equipment or access chamber</t>
+  </si>
+  <si>
+    <t>air exchange unit</t>
+  </si>
+  <si>
+    <t>instrument air or pneumatic control panel</t>
+  </si>
+  <si>
+    <t>Transfer Compactor</t>
+  </si>
+  <si>
+    <t>network panel</t>
+  </si>
+  <si>
+    <t>lifting device</t>
+  </si>
+  <si>
+    <t>Lifting Device</t>
+  </si>
+  <si>
+    <t>network switch</t>
+  </si>
+  <si>
+    <t>process control panel</t>
+  </si>
+  <si>
+    <t>test equipment</t>
+  </si>
+  <si>
+    <t>Test Equipment</t>
+  </si>
+  <si>
+    <t>motor starter</t>
+  </si>
+  <si>
+    <t>vacuum cleaner</t>
+  </si>
+  <si>
+    <t>Fan</t>
+  </si>
+  <si>
+    <t>AC condenser unit</t>
+  </si>
+  <si>
+    <t>Structure</t>
+  </si>
+  <si>
+    <t>substation</t>
+  </si>
+  <si>
+    <t>Substation</t>
+  </si>
+  <si>
+    <t>pumping station assets</t>
+  </si>
+  <si>
+    <t>Pump Station</t>
+  </si>
+  <si>
+    <t>lighting unit</t>
+  </si>
+  <si>
+    <t>data logger</t>
+  </si>
+  <si>
+    <t>system process control</t>
+  </si>
+  <si>
+    <t>System Process Control</t>
+  </si>
+  <si>
+    <t>controlled door access</t>
+  </si>
+  <si>
+    <t>hydraulic system</t>
+  </si>
+  <si>
+    <t>load break disconnect switch</t>
+  </si>
+  <si>
+    <t>heat exchanger</t>
+  </si>
+  <si>
+    <t>passenger vehicle</t>
+  </si>
+  <si>
+    <t>air handler unit</t>
+  </si>
+  <si>
+    <t>vortex classifier</t>
+  </si>
+  <si>
+    <t>RTU panel</t>
+  </si>
+  <si>
+    <t>Remote Processor Unit</t>
+  </si>
+  <si>
+    <t>air duct segment</t>
+  </si>
+  <si>
+    <t>Duct</t>
+  </si>
+  <si>
+    <t>UV disinfection assembly</t>
+  </si>
+  <si>
+    <t>plumbing</t>
+  </si>
+  <si>
+    <t>Plumbing</t>
+  </si>
+  <si>
+    <t>burner component of asset</t>
+  </si>
+  <si>
+    <t>ventilation system</t>
+  </si>
+  <si>
+    <t>grinder or comminutor</t>
+  </si>
+  <si>
+    <t>chemical or concentration analyzer</t>
+  </si>
+  <si>
+    <t>safety equipment</t>
+  </si>
+  <si>
+    <t>Safety Equipment</t>
+  </si>
+  <si>
+    <t>pneumatic control system</t>
+  </si>
+  <si>
+    <t>Remote Transmission Unit</t>
+  </si>
+  <si>
+    <t>air scrubber</t>
+  </si>
+  <si>
+    <t>Vent</t>
+  </si>
+  <si>
+    <t>Building</t>
+  </si>
+  <si>
+    <t>alarm device</t>
+  </si>
+  <si>
+    <t>fixed gas detector</t>
+  </si>
+  <si>
+    <t>man lift</t>
+  </si>
+  <si>
+    <t>drain</t>
+  </si>
+  <si>
+    <t>Drain</t>
+  </si>
+  <si>
+    <t>instrument gauge or display</t>
+  </si>
+  <si>
+    <t>protection relay</t>
+  </si>
+  <si>
+    <t>server appliance</t>
+  </si>
+  <si>
+    <t>backflow preventer</t>
+  </si>
+  <si>
+    <t>gas collector</t>
+  </si>
+  <si>
+    <t>Gas Collection</t>
+  </si>
+  <si>
+    <t>humidifier</t>
+  </si>
+  <si>
+    <t>tool</t>
+  </si>
+  <si>
+    <t>Tool</t>
+  </si>
+  <si>
+    <t>air damper</t>
+  </si>
+  <si>
+    <t>weight scale</t>
+  </si>
+  <si>
+    <t>operator interface terminal</t>
+  </si>
+  <si>
+    <t>SCADA computer terminal</t>
+  </si>
+  <si>
+    <t>PREFIX rdf: &lt;http://www.w3.org/1999/02/22-rdf-syntax-ns#&gt;
+PREFIX owl: &lt;http://www.w3.org/2002/07/owl#&gt;
+PREFIX rdfs: &lt;http://www.w3.org/2000/01/rdf-schema#&gt;
+PREFIX xsd: &lt;http://www.w3.org/2001/XMLSchema#&gt;
+PREFIX tw: &lt;http://www.toronto.ca/TWONTO#&gt;
+SELECT (STR(?label) as ?TWONTO) (STR(?object) as ?Avantis)
+WHERE { 
+    ?entityIRI tw:is_equivalent_to_Avantis_class ?object ;
+              rdfs:label ?label .
+}</t>
   </si>
 </sst>
 </file>
@@ -755,8 +851,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F59859A-FBE4-49A6-B6BA-B68B6E359698}" name="Table1" displayName="Table1" ref="A2:B103" totalsRowShown="0" headerRowDxfId="0">
-  <autoFilter ref="A2:B103" xr:uid="{2F59859A-FBE4-49A6-B6BA-B68B6E359698}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{2F59859A-FBE4-49A6-B6BA-B68B6E359698}" name="Table1" displayName="Table1" ref="A2:B124" totalsRowShown="0" headerRowDxfId="0">
+  <autoFilter ref="A2:B124" xr:uid="{2F59859A-FBE4-49A6-B6BA-B68B6E359698}"/>
   <tableColumns count="2">
     <tableColumn id="1" xr3:uid="{501FC86E-2DD7-42BC-9958-D448426BC6D0}" name="TWONTO"/>
     <tableColumn id="2" xr3:uid="{D1C1254F-83F0-416B-8CC1-E040F314ACEE}" name="Avantis_Class"/>
@@ -1062,10 +1158,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C799550E-49B1-4512-9CC1-86876BA1337E}">
-  <dimension ref="A2:B103"/>
+  <dimension ref="A1:B124"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -1074,6 +1170,11 @@
     <col min="2" max="2" width="26.7265625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="1" spans="1:2" ht="159.5" x14ac:dyDescent="0.35">
+      <c r="A1" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A2" s="1" t="s">
         <v>0</v>
@@ -1084,810 +1185,975 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
-        <v>103</v>
+        <v>133</v>
       </c>
       <c r="B3" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
-        <v>104</v>
+        <v>134</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>135</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>126</v>
       </c>
       <c r="B5" t="s">
-        <v>4</v>
+        <v>75</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>136</v>
       </c>
       <c r="B6" t="s">
-        <v>5</v>
+        <v>71</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
-        <v>107</v>
+        <v>137</v>
       </c>
       <c r="B7" t="s">
-        <v>6</v>
+        <v>69</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
-        <v>108</v>
+        <v>138</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>7</v>
+        <v>68</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>139</v>
       </c>
       <c r="B9" t="s">
-        <v>9</v>
+        <v>140</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B10" t="s">
-        <v>8</v>
+        <v>141</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
-        <v>111</v>
+        <v>142</v>
       </c>
       <c r="B11" t="s">
-        <v>10</v>
+        <v>143</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
-        <v>112</v>
+        <v>144</v>
       </c>
       <c r="B12" t="s">
-        <v>11</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
-        <v>113</v>
+        <v>145</v>
       </c>
       <c r="B13" t="s">
-        <v>12</v>
+        <v>146</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
-        <v>114</v>
+        <v>147</v>
       </c>
       <c r="B14" t="s">
-        <v>13</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
-        <v>115</v>
+        <v>148</v>
       </c>
       <c r="B15" t="s">
-        <v>14</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="B16" t="s">
-        <v>15</v>
+        <v>76</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
-        <v>117</v>
+        <v>124</v>
       </c>
       <c r="B17" t="s">
-        <v>16</v>
+        <v>149</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
-        <v>118</v>
+        <v>132</v>
       </c>
       <c r="B18" t="s">
-        <v>17</v>
+        <v>87</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
-        <v>119</v>
+        <v>150</v>
       </c>
       <c r="B19" t="s">
-        <v>18</v>
+        <v>51</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
-        <v>120</v>
+        <v>151</v>
       </c>
       <c r="B20" t="s">
-        <v>19</v>
+        <v>152</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
-        <v>121</v>
+        <v>145</v>
       </c>
       <c r="B21" t="s">
-        <v>20</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
-        <v>122</v>
+        <v>154</v>
       </c>
       <c r="B22" t="s">
-        <v>21</v>
+        <v>36</v>
       </c>
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
-        <v>123</v>
+        <v>109</v>
       </c>
       <c r="B23" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A24" t="s">
-        <v>124</v>
+        <v>155</v>
       </c>
       <c r="B24" t="s">
-        <v>23</v>
+        <v>89</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A25" t="s">
-        <v>125</v>
+        <v>156</v>
       </c>
       <c r="B25" t="s">
-        <v>24</v>
+        <v>50</v>
       </c>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A26" t="s">
-        <v>126</v>
+        <v>157</v>
       </c>
       <c r="B26" t="s">
-        <v>25</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A27" t="s">
-        <v>127</v>
+        <v>158</v>
       </c>
       <c r="B27" t="s">
-        <v>26</v>
+        <v>159</v>
       </c>
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A28" t="s">
-        <v>128</v>
+        <v>96</v>
       </c>
       <c r="B28" t="s">
-        <v>27</v>
+        <v>12</v>
       </c>
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A29" t="s">
-        <v>129</v>
+        <v>104</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A30" t="s">
-        <v>130</v>
+        <v>123</v>
       </c>
       <c r="B30" t="s">
-        <v>29</v>
+        <v>62</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A31" t="s">
-        <v>131</v>
+        <v>92</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>5</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A32" t="s">
-        <v>132</v>
+        <v>160</v>
       </c>
       <c r="B32" t="s">
-        <v>31</v>
+        <v>81</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A33" t="s">
-        <v>133</v>
+        <v>161</v>
       </c>
       <c r="B33" t="s">
-        <v>32</v>
+        <v>162</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A34" t="s">
-        <v>134</v>
+        <v>163</v>
       </c>
       <c r="B34" t="s">
-        <v>33</v>
+        <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A35" t="s">
-        <v>135</v>
+        <v>164</v>
       </c>
       <c r="B35" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A36" t="s">
-        <v>136</v>
+        <v>165</v>
       </c>
       <c r="B36" t="s">
-        <v>35</v>
+        <v>91</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A37" t="s">
-        <v>137</v>
+        <v>166</v>
       </c>
       <c r="B37" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A38" t="s">
-        <v>138</v>
+        <v>112</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>167</v>
       </c>
       <c r="B39" t="s">
-        <v>38</v>
+        <v>54</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A40" t="s">
-        <v>140</v>
+        <v>168</v>
       </c>
       <c r="B40" t="s">
-        <v>39</v>
+        <v>60</v>
       </c>
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A41" t="s">
-        <v>141</v>
+        <v>169</v>
       </c>
       <c r="B41" t="s">
-        <v>40</v>
+        <v>67</v>
       </c>
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A42" t="s">
-        <v>142</v>
+        <v>170</v>
       </c>
       <c r="B42" t="s">
-        <v>41</v>
+        <v>3</v>
       </c>
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A43" t="s">
-        <v>143</v>
+        <v>128</v>
       </c>
       <c r="B43" t="s">
-        <v>42</v>
+        <v>82</v>
       </c>
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A44" t="s">
-        <v>144</v>
+        <v>113</v>
       </c>
       <c r="B44" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A45" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B45" t="s">
-        <v>44</v>
+        <v>171</v>
       </c>
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A46" t="s">
-        <v>146</v>
+        <v>130</v>
       </c>
       <c r="B46" t="s">
-        <v>45</v>
+        <v>85</v>
       </c>
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A47" t="s">
-        <v>147</v>
+        <v>105</v>
       </c>
       <c r="B47" t="s">
-        <v>46</v>
+        <v>27</v>
       </c>
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A48" t="s">
-        <v>148</v>
+        <v>106</v>
       </c>
       <c r="B48" t="s">
-        <v>47</v>
+        <v>29</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A49" t="s">
-        <v>149</v>
+        <v>172</v>
       </c>
       <c r="B49" t="s">
-        <v>48</v>
+        <v>83</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A50" t="s">
-        <v>150</v>
+        <v>173</v>
       </c>
       <c r="B50" t="s">
-        <v>49</v>
+        <v>174</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A51" t="s">
-        <v>151</v>
+        <v>175</v>
       </c>
       <c r="B51" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A52" t="s">
-        <v>152</v>
+        <v>95</v>
       </c>
       <c r="B52" t="s">
-        <v>51</v>
+        <v>11</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A53" t="s">
-        <v>153</v>
+        <v>176</v>
       </c>
       <c r="B53" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A54" t="s">
-        <v>154</v>
+        <v>177</v>
       </c>
       <c r="B54" t="s">
-        <v>53</v>
+        <v>178</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A55" t="s">
-        <v>155</v>
+        <v>93</v>
       </c>
       <c r="B55" t="s">
-        <v>54</v>
+        <v>7</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A56" t="s">
-        <v>156</v>
+        <v>179</v>
       </c>
       <c r="B56" t="s">
-        <v>55</v>
+        <v>78</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A57" t="s">
-        <v>157</v>
+        <v>180</v>
       </c>
       <c r="B57" t="s">
-        <v>56</v>
+        <v>77</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>108</v>
       </c>
       <c r="B58" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A59" t="s">
-        <v>159</v>
+        <v>182</v>
       </c>
       <c r="B59" s="2" t="s">
-        <v>58</v>
+        <v>33</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A60" t="s">
-        <v>160</v>
+        <v>121</v>
       </c>
       <c r="B60" t="s">
-        <v>59</v>
+        <v>183</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A61" t="s">
-        <v>161</v>
+        <v>184</v>
       </c>
       <c r="B61" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A62" t="s">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="B62" s="2" t="s">
-        <v>61</v>
+        <v>187</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A63" t="s">
-        <v>163</v>
+        <v>188</v>
       </c>
       <c r="B63" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A64" t="s">
-        <v>164</v>
+        <v>189</v>
       </c>
       <c r="B64" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A65" t="s">
-        <v>165</v>
+        <v>125</v>
       </c>
       <c r="B65" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="66" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A66" t="s">
-        <v>166</v>
+        <v>190</v>
       </c>
       <c r="B66" s="2" t="s">
-        <v>65</v>
+        <v>191</v>
       </c>
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A67" t="s">
-        <v>167</v>
+        <v>98</v>
       </c>
       <c r="B67" s="2" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A68" t="s">
-        <v>168</v>
+        <v>102</v>
       </c>
       <c r="B68" t="s">
-        <v>67</v>
+        <v>21</v>
       </c>
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A69" t="s">
-        <v>169</v>
+        <v>103</v>
       </c>
       <c r="B69" t="s">
-        <v>68</v>
+        <v>24</v>
       </c>
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A70" t="s">
-        <v>170</v>
+        <v>97</v>
       </c>
       <c r="B70" t="s">
-        <v>69</v>
+        <v>13</v>
       </c>
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A71" t="s">
-        <v>171</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
-        <v>70</v>
+        <v>6</v>
       </c>
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A72" t="s">
-        <v>172</v>
+        <v>94</v>
       </c>
       <c r="B72" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="73" spans="1:2" ht="29" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A73" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="B73" s="2" t="s">
-        <v>72</v>
+        <v>88</v>
       </c>
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A74" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="B74" s="2" t="s">
-        <v>73</v>
+        <v>90</v>
       </c>
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A75" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="B75" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A76" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="B76" t="s">
-        <v>75</v>
+        <v>10</v>
       </c>
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A77" t="s">
-        <v>177</v>
+        <v>197</v>
       </c>
       <c r="B77" t="s">
-        <v>76</v>
+        <v>64</v>
       </c>
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A78" t="s">
-        <v>178</v>
+        <v>198</v>
       </c>
       <c r="B78" t="s">
-        <v>77</v>
+        <v>63</v>
       </c>
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A79" t="s">
-        <v>179</v>
+        <v>199</v>
       </c>
       <c r="B79" t="s">
-        <v>78</v>
+        <v>200</v>
       </c>
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A80" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="B80" t="s">
-        <v>79</v>
+        <v>202</v>
       </c>
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A81" t="s">
-        <v>181</v>
+        <v>203</v>
       </c>
       <c r="B81" t="s">
-        <v>80</v>
+        <v>4</v>
       </c>
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A82" t="s">
-        <v>182</v>
+        <v>99</v>
       </c>
       <c r="B82" t="s">
-        <v>81</v>
+        <v>17</v>
       </c>
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A83" t="s">
-        <v>183</v>
+        <v>204</v>
       </c>
       <c r="B83" t="s">
-        <v>82</v>
+        <v>205</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A84" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="B84" t="s">
-        <v>83</v>
+        <v>28</v>
       </c>
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A85" t="s">
-        <v>185</v>
+        <v>120</v>
       </c>
       <c r="B85" t="s">
-        <v>84</v>
+        <v>57</v>
       </c>
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A86" t="s">
-        <v>186</v>
+        <v>116</v>
       </c>
       <c r="B86" t="s">
-        <v>85</v>
+        <v>47</v>
       </c>
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A87" t="s">
-        <v>187</v>
+        <v>116</v>
       </c>
       <c r="B87" t="s">
-        <v>86</v>
+        <v>47</v>
       </c>
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A88" t="s">
-        <v>188</v>
+        <v>207</v>
       </c>
       <c r="B88" t="s">
-        <v>87</v>
+        <v>26</v>
       </c>
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A89" t="s">
-        <v>189</v>
+        <v>208</v>
       </c>
       <c r="B89" t="s">
-        <v>88</v>
+        <v>38</v>
       </c>
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A90" t="s">
-        <v>190</v>
+        <v>209</v>
       </c>
       <c r="B90" t="s">
-        <v>89</v>
+        <v>79</v>
       </c>
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A91" t="s">
-        <v>191</v>
+        <v>210</v>
       </c>
       <c r="B91" t="s">
-        <v>90</v>
+        <v>211</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A92" t="s">
-        <v>192</v>
+        <v>118</v>
       </c>
       <c r="B92" t="s">
-        <v>91</v>
+        <v>53</v>
       </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A93" t="s">
-        <v>193</v>
+        <v>101</v>
       </c>
       <c r="B93" t="s">
-        <v>92</v>
+        <v>19</v>
       </c>
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A94" t="s">
-        <v>194</v>
-      </c>
-      <c r="B94" t="s">
-        <v>93</v>
+        <v>212</v>
       </c>
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A95" t="s">
-        <v>195</v>
+        <v>199</v>
       </c>
       <c r="B95" t="s">
-        <v>94</v>
+        <v>213</v>
       </c>
     </row>
     <row r="96" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A96" t="s">
-        <v>196</v>
+        <v>214</v>
       </c>
       <c r="B96" t="s">
-        <v>95</v>
+        <v>48</v>
       </c>
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A97" t="s">
-        <v>197</v>
+        <v>201</v>
       </c>
       <c r="B97" t="s">
-        <v>96</v>
+        <v>215</v>
       </c>
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A98" t="s">
-        <v>198</v>
+        <v>114</v>
       </c>
       <c r="B98" t="s">
-        <v>97</v>
+        <v>44</v>
       </c>
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A99" t="s">
-        <v>199</v>
+        <v>121</v>
       </c>
       <c r="B99" t="s">
-        <v>98</v>
+        <v>216</v>
       </c>
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A100" t="s">
-        <v>200</v>
+        <v>217</v>
       </c>
       <c r="B100" t="s">
-        <v>99</v>
+        <v>65</v>
       </c>
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A101" t="s">
-        <v>201</v>
+        <v>218</v>
       </c>
       <c r="B101" t="s">
-        <v>100</v>
+        <v>39</v>
       </c>
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A102" t="s">
-        <v>202</v>
+        <v>219</v>
       </c>
       <c r="B102" t="s">
-        <v>101</v>
+        <v>22</v>
       </c>
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.35">
       <c r="A103" t="s">
-        <v>203</v>
+        <v>107</v>
       </c>
       <c r="B103" t="s">
-        <v>102</v>
+        <v>32</v>
+      </c>
+    </row>
+    <row r="104" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A104" t="s">
+        <v>111</v>
+      </c>
+      <c r="B104" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="105" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A105" t="s">
+        <v>115</v>
+      </c>
+      <c r="B105" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="106" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A106" t="s">
+        <v>220</v>
+      </c>
+      <c r="B106" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="107" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A107" t="s">
+        <v>131</v>
+      </c>
+      <c r="B107" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="108" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A108" t="s">
+        <v>222</v>
+      </c>
+      <c r="B108" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="109" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A109" t="s">
+        <v>223</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="110" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A110" t="s">
+        <v>129</v>
+      </c>
+      <c r="B110" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="111" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A111" t="s">
+        <v>129</v>
+      </c>
+      <c r="B111" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="112" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A112" t="s">
+        <v>224</v>
+      </c>
+      <c r="B112" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A113" t="s">
+        <v>100</v>
+      </c>
+      <c r="B113" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A114" t="s">
+        <v>117</v>
+      </c>
+      <c r="B114" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A115" t="s">
+        <v>110</v>
+      </c>
+      <c r="B115" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A116" t="s">
+        <v>225</v>
+      </c>
+      <c r="B116" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A117" t="s">
+        <v>119</v>
+      </c>
+      <c r="B117" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A118" t="s">
+        <v>226</v>
+      </c>
+      <c r="B118" t="s">
+        <v>227</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A119" t="s">
+        <v>228</v>
+      </c>
+      <c r="B119" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A120" t="s">
+        <v>229</v>
+      </c>
+      <c r="B120" t="s">
+        <v>230</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A121" t="s">
+        <v>231</v>
+      </c>
+      <c r="B121" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A122" t="s">
+        <v>232</v>
+      </c>
+      <c r="B122" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A123" t="s">
+        <v>233</v>
+      </c>
+      <c r="B123" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.35">
+      <c r="A124" t="s">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>58</v>
       </c>
     </row>
   </sheetData>
